--- a/biology/Botanique/Parc_de_Milan/Parc_de_Milan.xlsx
+++ b/biology/Botanique/Parc_de_Milan/Parc_de_Milan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Milan est un parc public de la ville vaudoise de Lausanne, en Suisse. Il est divisé en deux espaces : la place de Milan à l'ouest et le crêt de Montriond à l'est, sur les flancs sud et sud-ouest duquel se trouve le jardin botanique de Lausanne.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc de Milan se situe à moins de cinq minutes à pied au sud-ouest de la gare. Il est bordé par l'avenue de Cour au sud-ouest, l'avenue Beauregard au sud-est, l'avenue de la Harpe à l'est, l'avenue Dapples au Nord et l'avenue de Milan, qui en a pris le nom, au nord-ouest. Deux écoles primaires (Floréal et Montriond) se trouvent également aux alentours du parc.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est divisé en deux espaces : le « crêt de Montriond » et, à son pied, à l'ouest, la « place de Milan ».
-Le crêt de Montriond, aussi appelé « colline de Montriond », atteint une altitude de 37 mètres au-dessus de la place de Milan[2]. Ses flancs dont recouvert d'une forêt de hêtres, de chênes et de frênes et son sommet, accessible à pied, offre un panorama sur la ville et sur le lac Léman. Sur ses flancs sud et sud-ouest s’étale le jardin botanique de Lausanne[3].
-Large espace plat au pied du crêt de Montriond, la place de Milan comporte une aire de jeu, des terrains de sport et une promenade bordée de tilleuls. Elle accueille chaque fin d’année scolaire la « Fête du Bois », le défilé des écoles lausannoises[3].
+Le crêt de Montriond, aussi appelé « colline de Montriond », atteint une altitude de 37 mètres au-dessus de la place de Milan. Ses flancs dont recouvert d'une forêt de hêtres, de chênes et de frênes et son sommet, accessible à pied, offre un panorama sur la ville et sur le lac Léman. Sur ses flancs sud et sud-ouest s’étale le jardin botanique de Lausanne.
+Large espace plat au pied du crêt de Montriond, la place de Milan comporte une aire de jeu, des terrains de sport et une promenade bordée de tilleuls. Elle accueille chaque fin d’année scolaire la « Fête du Bois », le défilé des écoles lausannoises.
 </t>
         </is>
       </c>
